--- a/Code/Results/Cases/Case_1_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.22296955705529</v>
+        <v>16.5490618995054</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.529392392408006</v>
+        <v>3.489273697077929</v>
       </c>
       <c r="E2">
-        <v>35.28118089509743</v>
+        <v>25.80812753231834</v>
       </c>
       <c r="F2">
-        <v>29.21392255025253</v>
+        <v>24.39104713117687</v>
       </c>
       <c r="G2">
-        <v>44.3838407827744</v>
+        <v>30.93928248280366</v>
       </c>
       <c r="H2">
-        <v>11.41409565009832</v>
+        <v>13.48434404676267</v>
       </c>
       <c r="I2">
-        <v>16.55361932693604</v>
+        <v>24.64241205178492</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.40670978509415</v>
+        <v>10.24440483804235</v>
       </c>
       <c r="M2">
-        <v>15.79890680975163</v>
+        <v>15.80007476556411</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.93207771269685</v>
+        <v>16.07345499580249</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.558205660009784</v>
+        <v>3.527311135262578</v>
       </c>
       <c r="E3">
-        <v>33.3461322650079</v>
+        <v>24.98561795620806</v>
       </c>
       <c r="F3">
-        <v>27.15851200637865</v>
+        <v>24.0189881537857</v>
       </c>
       <c r="G3">
-        <v>41.08996666943266</v>
+        <v>30.08631479192796</v>
       </c>
       <c r="H3">
-        <v>10.8721253993549</v>
+        <v>13.46243202893969</v>
       </c>
       <c r="I3">
-        <v>16.73678412195538</v>
+        <v>24.79833153369635</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.65565942044466</v>
+        <v>10.05779004209083</v>
       </c>
       <c r="M3">
-        <v>14.76785249693799</v>
+        <v>15.55856122571748</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.09765170834433</v>
+        <v>15.77461083674064</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1.640817759568761</v>
+        <v>3.551683636425415</v>
       </c>
       <c r="E4">
-        <v>32.10442080623518</v>
+        <v>24.46528320796558</v>
       </c>
       <c r="F4">
-        <v>25.9554776911091</v>
+        <v>23.80057920529715</v>
       </c>
       <c r="G4">
-        <v>39.00954932726541</v>
+        <v>29.56972175102106</v>
       </c>
       <c r="H4">
-        <v>10.54625453434572</v>
+        <v>13.45439511741066</v>
       </c>
       <c r="I4">
-        <v>16.87472853039528</v>
+        <v>24.90250789127501</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.16982340495859</v>
+        <v>9.94255819574655</v>
       </c>
       <c r="M4">
-        <v>14.16728302103675</v>
+        <v>15.40950760476522</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.74713120508421</v>
+        <v>15.65127198566043</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.674729691303194</v>
+        <v>3.561872532496356</v>
       </c>
       <c r="E5">
-        <v>31.58517833704815</v>
+        <v>24.2496457394453</v>
       </c>
       <c r="F5">
-        <v>25.46042376218623</v>
+        <v>23.71422809194632</v>
       </c>
       <c r="G5">
-        <v>38.16085134442173</v>
+        <v>29.36142230557179</v>
       </c>
       <c r="H5">
-        <v>10.41529602850396</v>
+        <v>13.45247851268861</v>
       </c>
       <c r="I5">
-        <v>16.93693741441295</v>
+        <v>24.94707638217177</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.965588850634303</v>
+        <v>9.895491934239759</v>
       </c>
       <c r="M5">
-        <v>13.93252612808085</v>
+        <v>15.34863674177978</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.6882957391329</v>
+        <v>15.63070242244895</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.680376556116632</v>
+        <v>3.563579938964909</v>
       </c>
       <c r="E6">
-        <v>31.49816778173274</v>
+        <v>24.21362991331909</v>
       </c>
       <c r="F6">
-        <v>25.37794127961829</v>
+        <v>23.7000533431437</v>
       </c>
       <c r="G6">
-        <v>38.02157232799397</v>
+        <v>29.32698068811776</v>
       </c>
       <c r="H6">
-        <v>10.39366473391976</v>
+        <v>13.45224217003122</v>
       </c>
       <c r="I6">
-        <v>16.94761771838045</v>
+        <v>24.95460453701036</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.93129712732809</v>
+        <v>9.887671703304072</v>
       </c>
       <c r="M6">
-        <v>13.89320673065766</v>
+        <v>15.33852312892611</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.09296685892224</v>
+        <v>15.77295353551562</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>1.641274067387555</v>
+        <v>3.551820005859756</v>
       </c>
       <c r="E7">
-        <v>32.09747133206979</v>
+        <v>24.46238925746249</v>
       </c>
       <c r="F7">
-        <v>25.94882020153399</v>
+        <v>23.79940374129107</v>
       </c>
       <c r="G7">
-        <v>38.99797814818476</v>
+        <v>29.56690301415482</v>
       </c>
       <c r="H7">
-        <v>10.54448079736646</v>
+        <v>13.45436377519813</v>
       </c>
       <c r="I7">
-        <v>16.8755437511868</v>
+        <v>24.90310039983692</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.16709439367061</v>
+        <v>9.941923808914099</v>
       </c>
       <c r="M7">
-        <v>14.16413979223875</v>
+        <v>15.40868712463044</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.78655636984234</v>
+        <v>16.38657892323738</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.488306868284785</v>
+        <v>3.50217850602652</v>
       </c>
       <c r="E8">
-        <v>34.62521570159385</v>
+        <v>25.52784866471774</v>
       </c>
       <c r="F8">
-        <v>28.4831828012899</v>
+        <v>24.26075752052503</v>
       </c>
       <c r="G8">
-        <v>43.26008906770706</v>
+        <v>30.64395006388795</v>
       </c>
       <c r="H8">
-        <v>11.22584546897369</v>
+        <v>13.47566276627949</v>
       </c>
       <c r="I8">
-        <v>16.61123030413383</v>
+        <v>24.69441698984819</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.15284169650618</v>
+        <v>10.18022749010127</v>
       </c>
       <c r="M8">
-        <v>15.45058538116206</v>
+        <v>15.71699601995794</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.78743268448218</v>
+        <v>17.52946041729144</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.7862190180964</v>
+        <v>3.41285404322861</v>
       </c>
       <c r="E9">
-        <v>39.15054385638891</v>
+        <v>27.48577194905711</v>
       </c>
       <c r="F9">
-        <v>33.61526173176264</v>
+        <v>25.23910722232923</v>
       </c>
       <c r="G9">
-        <v>51.16788594486456</v>
+        <v>32.79457078547831</v>
       </c>
       <c r="H9">
-        <v>12.71309576179343</v>
+        <v>13.56049428509368</v>
       </c>
       <c r="I9">
-        <v>16.31484733942057</v>
+        <v>24.35247772302744</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.89254135810236</v>
+        <v>10.64004050805717</v>
       </c>
       <c r="M9">
-        <v>17.8332353280669</v>
+        <v>16.31287931479059</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.87554200684666</v>
+        <v>18.3246512515449</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.008360448363931</v>
+        <v>3.352047235009518</v>
       </c>
       <c r="E10">
-        <v>42.20894032171687</v>
+        <v>28.83236289625372</v>
       </c>
       <c r="F10">
-        <v>37.21218040082837</v>
+        <v>25.99440311758435</v>
       </c>
       <c r="G10">
-        <v>56.73041527708496</v>
+        <v>34.37508552015308</v>
       </c>
       <c r="H10">
-        <v>14.07900325017975</v>
+        <v>13.64906456288469</v>
       </c>
       <c r="I10">
-        <v>16.26127363976459</v>
+        <v>24.14271104522942</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>14.0571095072366</v>
+        <v>10.97027578728088</v>
       </c>
       <c r="M10">
-        <v>19.42191293323143</v>
+        <v>16.74191447103779</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.77859612548051</v>
+        <v>18.6753611271996</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.111090258231218</v>
+        <v>3.32541605064</v>
       </c>
       <c r="E11">
-        <v>43.54315242521157</v>
+        <v>29.42294076069175</v>
       </c>
       <c r="F11">
-        <v>38.81678315958266</v>
+        <v>26.34410190654116</v>
       </c>
       <c r="G11">
-        <v>59.21691394926302</v>
+        <v>35.08975147781585</v>
       </c>
       <c r="H11">
-        <v>14.69088008440154</v>
+        <v>13.69501606428515</v>
       </c>
       <c r="I11">
-        <v>16.27922198622844</v>
+        <v>24.05638062274643</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.56339036736954</v>
+        <v>11.11826309488901</v>
       </c>
       <c r="M11">
-        <v>20.11076596884913</v>
+        <v>16.93449591609414</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.11397901580753</v>
+        <v>18.80647971455932</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.15032780992717</v>
+        <v>3.315478496162535</v>
       </c>
       <c r="E12">
-        <v>44.04031992230084</v>
+        <v>29.64326786212676</v>
       </c>
       <c r="F12">
-        <v>39.42050660643149</v>
+        <v>26.47725003870147</v>
       </c>
       <c r="G12">
-        <v>60.15322929963587</v>
+        <v>35.35941983223381</v>
       </c>
       <c r="H12">
-        <v>14.92146671246869</v>
+        <v>13.71322437592541</v>
       </c>
       <c r="I12">
-        <v>16.29267862772695</v>
+        <v>24.02500533940144</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.75183983662084</v>
+        <v>11.17393352305642</v>
       </c>
       <c r="M12">
-        <v>20.36687126731526</v>
+        <v>17.00699396449058</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.04203859571222</v>
+        <v>18.77831755195422</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.141860683013114</v>
+        <v>3.317612200566635</v>
       </c>
       <c r="E13">
-        <v>43.93360200986397</v>
+        <v>29.59596596795404</v>
       </c>
       <c r="F13">
-        <v>39.29064584767898</v>
+        <v>26.44854439583167</v>
       </c>
       <c r="G13">
-        <v>59.95179222484802</v>
+        <v>35.30138974301872</v>
       </c>
       <c r="H13">
-        <v>14.87185093751571</v>
+        <v>13.70926709970632</v>
       </c>
       <c r="I13">
-        <v>16.28947499456059</v>
+        <v>24.03170389389456</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.71139731637615</v>
+        <v>11.16196104331519</v>
       </c>
       <c r="M13">
-        <v>20.31192354195784</v>
+        <v>16.99140013122503</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.80631932200623</v>
+        <v>18.6861827021125</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.114311023680283</v>
+        <v>3.324595539924815</v>
       </c>
       <c r="E14">
-        <v>43.58421539990609</v>
+        <v>29.44113437238162</v>
       </c>
       <c r="F14">
-        <v>38.86652591262722</v>
+        <v>26.35504243083873</v>
       </c>
       <c r="G14">
-        <v>59.29404394773113</v>
+        <v>35.11195834508018</v>
       </c>
       <c r="H14">
-        <v>14.70987137418906</v>
+        <v>13.6964979335239</v>
       </c>
       <c r="I14">
-        <v>16.28019225408931</v>
+        <v>24.05377293198295</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.57895903569385</v>
+        <v>11.12285079438294</v>
       </c>
       <c r="M14">
-        <v>20.13193033697689</v>
+        <v>16.94046927181568</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.66108171654563</v>
+        <v>18.62952481793388</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.097482892337064</v>
+        <v>3.328892162646301</v>
       </c>
       <c r="E15">
-        <v>43.36916030746677</v>
+        <v>29.3458601097958</v>
       </c>
       <c r="F15">
-        <v>38.60625322741353</v>
+        <v>26.29785963780665</v>
       </c>
       <c r="G15">
-        <v>58.89050303887961</v>
+        <v>34.99579149972707</v>
       </c>
       <c r="H15">
-        <v>14.61051691687385</v>
+        <v>13.68878138469048</v>
       </c>
       <c r="I15">
-        <v>16.27539093439302</v>
+        <v>24.06746251474727</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.49741466480105</v>
+        <v>11.09884520451052</v>
       </c>
       <c r="M15">
-        <v>20.0210646997893</v>
+        <v>16.90921524103866</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.81559543764144</v>
+        <v>18.30150069155097</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.001688331728114</v>
+        <v>3.353808285913098</v>
       </c>
       <c r="E16">
-        <v>42.12060822803494</v>
+        <v>28.79331151276849</v>
       </c>
       <c r="F16">
-        <v>37.10673111688277</v>
+        <v>25.97165923678852</v>
       </c>
       <c r="G16">
-        <v>56.56711751768368</v>
+        <v>34.32826391917121</v>
       </c>
       <c r="H16">
-        <v>14.03884455811228</v>
+        <v>13.64617491282121</v>
       </c>
       <c r="I16">
-        <v>16.26100101483942</v>
+        <v>24.14853665369326</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>14.02355924685643</v>
+        <v>10.96055532594449</v>
       </c>
       <c r="M16">
-        <v>19.37622350285978</v>
+        <v>16.72927187629846</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.28502444692198</v>
+        <v>18.09736839567796</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.943413911345733</v>
+        <v>3.369356625128556</v>
       </c>
       <c r="E17">
-        <v>41.34012172536384</v>
+        <v>28.44859591254543</v>
       </c>
       <c r="F17">
-        <v>36.1791338782289</v>
+        <v>25.7730008356388</v>
       </c>
       <c r="G17">
-        <v>55.13122350149963</v>
+        <v>33.91740156507191</v>
       </c>
       <c r="H17">
-        <v>13.68587052244097</v>
+        <v>13.62148294900381</v>
       </c>
       <c r="I17">
-        <v>16.26341612998671</v>
+        <v>24.20060812067803</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.72692183896053</v>
+        <v>10.87511120191157</v>
       </c>
       <c r="M17">
-        <v>18.97204541801612</v>
+        <v>16.61817871488985</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.97543577247635</v>
+        <v>17.97892444648144</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.910047336776298</v>
+        <v>3.378396641686686</v>
       </c>
       <c r="E18">
-        <v>40.88582278951269</v>
+        <v>28.24826226349725</v>
       </c>
       <c r="F18">
-        <v>35.64257852840051</v>
+        <v>25.65932209237955</v>
       </c>
       <c r="G18">
-        <v>54.30112544233785</v>
+        <v>33.68069657593067</v>
       </c>
       <c r="H18">
-        <v>13.48193871049017</v>
+        <v>13.60781407578529</v>
       </c>
       <c r="I18">
-        <v>16.26875307770836</v>
+        <v>24.23141365696677</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.55408574868615</v>
+        <v>10.82575798115555</v>
       </c>
       <c r="M18">
-        <v>18.7363793114013</v>
+        <v>16.55404040317215</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.86985112271209</v>
+        <v>17.93864731925655</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.89877332116882</v>
+        <v>3.381474131374723</v>
       </c>
       <c r="E19">
-        <v>40.7310772351296</v>
+        <v>28.18008336524239</v>
       </c>
       <c r="F19">
-        <v>35.46037286211563</v>
+        <v>25.62093750452975</v>
       </c>
       <c r="G19">
-        <v>54.01931705656347</v>
+        <v>33.60049649813121</v>
       </c>
       <c r="H19">
-        <v>13.41272797021092</v>
+        <v>13.60327779173991</v>
       </c>
       <c r="I19">
-        <v>16.2712208652406</v>
+        <v>24.24199054014851</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.49518236772643</v>
+        <v>10.8090135839741</v>
       </c>
       <c r="M19">
-        <v>18.65603495989791</v>
+        <v>16.53228472208465</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.34196085472949</v>
+        <v>18.11920625462853</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.94960101969407</v>
+        <v>3.367691443876268</v>
       </c>
       <c r="E20">
-        <v>41.42376226495066</v>
+        <v>28.48550606061758</v>
       </c>
       <c r="F20">
-        <v>36.27818710436429</v>
+        <v>25.79408900952085</v>
       </c>
       <c r="G20">
-        <v>55.28450566988513</v>
+        <v>33.96118124555768</v>
       </c>
       <c r="H20">
-        <v>13.72353784558663</v>
+        <v>13.62405629842692</v>
       </c>
       <c r="I20">
-        <v>16.26274633622159</v>
+        <v>24.19497643132788</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.75872821789806</v>
+        <v>10.8842287548692</v>
       </c>
       <c r="M20">
-        <v>19.01540057775415</v>
+        <v>16.63003007276858</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.8757332096295</v>
+        <v>18.71329150389308</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.122393075853298</v>
+        <v>3.322540379929638</v>
       </c>
       <c r="E21">
-        <v>43.68705630125016</v>
+        <v>29.48670315238403</v>
       </c>
       <c r="F21">
-        <v>38.99120035340922</v>
+        <v>26.38248776877538</v>
       </c>
       <c r="G21">
-        <v>59.48737405876645</v>
+        <v>35.16762756572219</v>
       </c>
       <c r="H21">
-        <v>14.75747678982524</v>
+        <v>13.70022669302587</v>
       </c>
       <c r="I21">
-        <v>16.28273341970964</v>
+        <v>24.04725493143858</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.61794711732771</v>
+        <v>11.13434880502971</v>
       </c>
       <c r="M21">
-        <v>20.18492655323163</v>
+        <v>16.9554409603718</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.83984470656039</v>
+        <v>19.09168370331417</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.237336699318609</v>
+        <v>3.293888466833524</v>
       </c>
       <c r="E22">
-        <v>45.11932596704168</v>
+        <v>30.12168182363142</v>
       </c>
       <c r="F22">
-        <v>40.74195344449294</v>
+        <v>26.7711955933218</v>
       </c>
       <c r="G22">
-        <v>62.20413942221884</v>
+        <v>35.95037538914686</v>
       </c>
       <c r="H22">
-        <v>15.42685698250481</v>
+        <v>13.75471078235804</v>
       </c>
       <c r="I22">
-        <v>16.33489162868308</v>
+        <v>23.95838608354059</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>15.16050949377577</v>
+        <v>11.29564494633693</v>
       </c>
       <c r="M22">
-        <v>20.92166865429175</v>
+        <v>17.16559469258155</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.32873109457594</v>
+        <v>18.89066342383715</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.175769379542469</v>
+        <v>3.309102464895794</v>
       </c>
       <c r="E23">
-        <v>44.35912731422735</v>
+        <v>29.7845981757896</v>
       </c>
       <c r="F23">
-        <v>39.80933883928338</v>
+        <v>26.56340487941651</v>
       </c>
       <c r="G23">
-        <v>60.7564943045173</v>
+        <v>35.53323792664368</v>
       </c>
       <c r="H23">
-        <v>15.07008134142318</v>
+        <v>13.72520393435462</v>
       </c>
       <c r="I23">
-        <v>16.30328319897886</v>
+        <v>24.00511188963019</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.87263081861775</v>
+        <v>11.20977181454692</v>
       </c>
       <c r="M23">
-        <v>20.53093861938815</v>
+        <v>17.05368026076258</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.31623410800558</v>
+        <v>18.10933673206002</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.946803410828465</v>
+        <v>3.36844395743353</v>
       </c>
       <c r="E24">
-        <v>41.38596578818748</v>
+        <v>28.46882567433809</v>
       </c>
       <c r="F24">
-        <v>36.23341536493626</v>
+        <v>25.78455337541636</v>
       </c>
       <c r="G24">
-        <v>55.21522115427443</v>
+        <v>33.94138996700541</v>
       </c>
       <c r="H24">
-        <v>13.70651158864407</v>
+        <v>13.62289124561298</v>
       </c>
       <c r="I24">
-        <v>16.26303689478271</v>
+        <v>24.19751981212374</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.74435571136001</v>
+        <v>10.88010742275716</v>
       </c>
       <c r="M24">
-        <v>18.9958099936223</v>
+        <v>16.62467290862767</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.00274164158566</v>
+        <v>17.22758512756725</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.705343640209027</v>
+        <v>3.436167158013383</v>
       </c>
       <c r="E25">
-        <v>37.97312026563146</v>
+        <v>26.97147146860318</v>
       </c>
       <c r="F25">
-        <v>32.25901847850727</v>
+        <v>24.96740797781834</v>
       </c>
       <c r="G25">
-        <v>49.07468997609534</v>
+        <v>32.21110098141605</v>
       </c>
       <c r="H25">
-        <v>12.23303603677699</v>
+        <v>13.53292841217218</v>
       </c>
       <c r="I25">
-        <v>16.36837953833906</v>
+        <v>24.43773319940622</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.44220376559142</v>
+        <v>10.51677111453676</v>
       </c>
       <c r="M25">
-        <v>17.2174740232337</v>
+        <v>16.15297237447164</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.5490618995054</v>
+        <v>20.22296955705533</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.489273697077929</v>
+        <v>1.529392392407871</v>
       </c>
       <c r="E2">
-        <v>25.80812753231834</v>
+        <v>35.28118089509735</v>
       </c>
       <c r="F2">
-        <v>24.39104713117687</v>
+        <v>29.21392255025252</v>
       </c>
       <c r="G2">
-        <v>30.93928248280366</v>
+        <v>44.3838407827744</v>
       </c>
       <c r="H2">
-        <v>13.48434404676267</v>
+        <v>11.41409565009833</v>
       </c>
       <c r="I2">
-        <v>24.64241205178492</v>
+        <v>16.55361932693591</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.24440483804235</v>
+        <v>11.40670978509416</v>
       </c>
       <c r="M2">
-        <v>15.80007476556411</v>
+        <v>15.79890680975167</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.07345499580249</v>
+        <v>18.93207771269685</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.527311135262578</v>
+        <v>1.558205660009784</v>
       </c>
       <c r="E3">
-        <v>24.98561795620806</v>
+        <v>33.34613226500785</v>
       </c>
       <c r="F3">
-        <v>24.0189881537857</v>
+        <v>27.1585120063787</v>
       </c>
       <c r="G3">
-        <v>30.08631479192796</v>
+        <v>41.0899666694327</v>
       </c>
       <c r="H3">
-        <v>13.46243202893969</v>
+        <v>10.87212539935496</v>
       </c>
       <c r="I3">
-        <v>24.79833153369635</v>
+        <v>16.73678412195543</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.05779004209083</v>
+        <v>10.65565942044461</v>
       </c>
       <c r="M3">
-        <v>15.55856122571748</v>
+        <v>14.76785249693792</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.77461083674064</v>
+        <v>18.09765170834433</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.551683636425415</v>
+        <v>1.640817759568627</v>
       </c>
       <c r="E4">
-        <v>24.46528320796558</v>
+        <v>32.10442080623522</v>
       </c>
       <c r="F4">
-        <v>23.80057920529715</v>
+        <v>25.95547769110911</v>
       </c>
       <c r="G4">
-        <v>29.56972175102106</v>
+        <v>39.0095493272654</v>
       </c>
       <c r="H4">
-        <v>13.45439511741066</v>
+        <v>10.54625453434573</v>
       </c>
       <c r="I4">
-        <v>24.90250789127501</v>
+        <v>16.87472853039539</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.94255819574655</v>
+        <v>10.16982340495856</v>
       </c>
       <c r="M4">
-        <v>15.40950760476522</v>
+        <v>14.16728302103677</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.65127198566043</v>
+        <v>17.74713120508419</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.561872532496356</v>
+        <v>1.67472969130326</v>
       </c>
       <c r="E5">
-        <v>24.2496457394453</v>
+        <v>31.58517833704803</v>
       </c>
       <c r="F5">
-        <v>23.71422809194632</v>
+        <v>25.46042376218622</v>
       </c>
       <c r="G5">
-        <v>29.36142230557179</v>
+        <v>38.16085134442174</v>
       </c>
       <c r="H5">
-        <v>13.45247851268861</v>
+        <v>10.41529602850398</v>
       </c>
       <c r="I5">
-        <v>24.94707638217177</v>
+        <v>16.93693741441284</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.895491934239759</v>
+        <v>9.965588850634303</v>
       </c>
       <c r="M5">
-        <v>15.34863674177978</v>
+        <v>13.93252612808085</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.63070242244895</v>
+        <v>17.6882957391329</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.563579938964909</v>
+        <v>1.680376556116566</v>
       </c>
       <c r="E6">
-        <v>24.21362991331909</v>
+        <v>31.49816778173269</v>
       </c>
       <c r="F6">
-        <v>23.7000533431437</v>
+        <v>25.37794127961827</v>
       </c>
       <c r="G6">
-        <v>29.32698068811776</v>
+        <v>38.02157232799392</v>
       </c>
       <c r="H6">
-        <v>13.45224217003122</v>
+        <v>10.39366473391976</v>
       </c>
       <c r="I6">
-        <v>24.95460453701036</v>
+        <v>16.94761771838031</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.887671703304072</v>
+        <v>9.931297127328067</v>
       </c>
       <c r="M6">
-        <v>15.33852312892611</v>
+        <v>13.89320673065765</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.77295353551562</v>
+        <v>18.09296685892221</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.551820005859756</v>
+        <v>1.641274067387561</v>
       </c>
       <c r="E7">
-        <v>24.46238925746249</v>
+        <v>32.09747133206991</v>
       </c>
       <c r="F7">
-        <v>23.79940374129107</v>
+        <v>25.94882020153402</v>
       </c>
       <c r="G7">
-        <v>29.56690301415482</v>
+        <v>38.99797814818491</v>
       </c>
       <c r="H7">
-        <v>13.45436377519813</v>
+        <v>10.54448079736645</v>
       </c>
       <c r="I7">
-        <v>24.90310039983692</v>
+        <v>16.87554375118681</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.941923808914099</v>
+        <v>10.1670943936706</v>
       </c>
       <c r="M7">
-        <v>15.40868712463044</v>
+        <v>14.16413979223871</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.38657892323738</v>
+        <v>19.78655636984233</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.50217850602652</v>
+        <v>1.488306868284583</v>
       </c>
       <c r="E8">
-        <v>25.52784866471774</v>
+        <v>34.62521570159391</v>
       </c>
       <c r="F8">
-        <v>24.26075752052503</v>
+        <v>28.48318280128999</v>
       </c>
       <c r="G8">
-        <v>30.64395006388795</v>
+        <v>43.26008906770718</v>
       </c>
       <c r="H8">
-        <v>13.47566276627949</v>
+        <v>11.22584546897367</v>
       </c>
       <c r="I8">
-        <v>24.69441698984819</v>
+        <v>16.61123030413375</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.18022749010127</v>
+        <v>11.15284169650621</v>
       </c>
       <c r="M8">
-        <v>15.71699601995794</v>
+        <v>15.45058538116207</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.52946041729144</v>
+        <v>22.78743268448209</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.41285404322861</v>
+        <v>1.7862190180964</v>
       </c>
       <c r="E9">
-        <v>27.48577194905711</v>
+        <v>39.15054385638894</v>
       </c>
       <c r="F9">
-        <v>25.23910722232923</v>
+        <v>33.6152617317626</v>
       </c>
       <c r="G9">
-        <v>32.79457078547831</v>
+        <v>51.16788594486454</v>
       </c>
       <c r="H9">
-        <v>13.56049428509368</v>
+        <v>12.71309576179339</v>
       </c>
       <c r="I9">
-        <v>24.35247772302744</v>
+        <v>16.31484733942074</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.64004050805717</v>
+        <v>12.89254135810238</v>
       </c>
       <c r="M9">
-        <v>16.31287931479059</v>
+        <v>17.83323532806686</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.3246512515449</v>
+        <v>24.87554200684665</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.352047235009518</v>
+        <v>2.008360448363729</v>
       </c>
       <c r="E10">
-        <v>28.83236289625372</v>
+        <v>42.20894032171692</v>
       </c>
       <c r="F10">
-        <v>25.99440311758435</v>
+        <v>37.21218040082847</v>
       </c>
       <c r="G10">
-        <v>34.37508552015308</v>
+        <v>56.73041527708511</v>
       </c>
       <c r="H10">
-        <v>13.64906456288469</v>
+        <v>14.07900325017976</v>
       </c>
       <c r="I10">
-        <v>24.14271104522942</v>
+        <v>16.26127363976457</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.97027578728088</v>
+        <v>14.05710950723661</v>
       </c>
       <c r="M10">
-        <v>16.74191447103779</v>
+        <v>19.42191293323143</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.6753611271996</v>
+        <v>25.77859612548051</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.32541605064</v>
+        <v>2.11109025823115</v>
       </c>
       <c r="E11">
-        <v>29.42294076069175</v>
+        <v>43.54315242521156</v>
       </c>
       <c r="F11">
-        <v>26.34410190654116</v>
+        <v>38.81678315958271</v>
       </c>
       <c r="G11">
-        <v>35.08975147781585</v>
+        <v>59.21691394926308</v>
       </c>
       <c r="H11">
-        <v>13.69501606428515</v>
+        <v>14.69088008440159</v>
       </c>
       <c r="I11">
-        <v>24.05638062274643</v>
+        <v>16.27922198622845</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.11826309488901</v>
+        <v>14.56339036736956</v>
       </c>
       <c r="M11">
-        <v>16.93449591609414</v>
+        <v>20.11076596884915</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.80647971455932</v>
+        <v>26.11397901580757</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.315478496162535</v>
+        <v>2.150327809927371</v>
       </c>
       <c r="E12">
-        <v>29.64326786212676</v>
+        <v>44.04031992230096</v>
       </c>
       <c r="F12">
-        <v>26.47725003870147</v>
+        <v>39.42050660643169</v>
       </c>
       <c r="G12">
-        <v>35.35941983223381</v>
+        <v>60.15322929963626</v>
       </c>
       <c r="H12">
-        <v>13.71322437592541</v>
+        <v>14.92146671246878</v>
       </c>
       <c r="I12">
-        <v>24.02500533940144</v>
+        <v>16.29267862772684</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.17393352305642</v>
+        <v>14.75183983662089</v>
       </c>
       <c r="M12">
-        <v>17.00699396449058</v>
+        <v>20.36687126731533</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.77831755195422</v>
+        <v>26.04203859571222</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.317612200566635</v>
+        <v>2.141860683012981</v>
       </c>
       <c r="E13">
-        <v>29.59596596795404</v>
+        <v>43.93360200986409</v>
       </c>
       <c r="F13">
-        <v>26.44854439583167</v>
+        <v>39.29064584767905</v>
       </c>
       <c r="G13">
-        <v>35.30138974301872</v>
+        <v>59.95179222484803</v>
       </c>
       <c r="H13">
-        <v>13.70926709970632</v>
+        <v>14.87185093751571</v>
       </c>
       <c r="I13">
-        <v>24.03170389389456</v>
+        <v>16.28947499456062</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.16196104331519</v>
+        <v>14.71139731637613</v>
       </c>
       <c r="M13">
-        <v>16.99140013122503</v>
+        <v>20.31192354195783</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.6861827021125</v>
+        <v>25.80631932200621</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.324595539924815</v>
+        <v>2.114311023680284</v>
       </c>
       <c r="E14">
-        <v>29.44113437238162</v>
+        <v>43.58421539990601</v>
       </c>
       <c r="F14">
-        <v>26.35504243083873</v>
+        <v>38.86652591262722</v>
       </c>
       <c r="G14">
-        <v>35.11195834508018</v>
+        <v>59.29404394773111</v>
       </c>
       <c r="H14">
-        <v>13.6964979335239</v>
+        <v>14.70987137418908</v>
       </c>
       <c r="I14">
-        <v>24.05377293198295</v>
+        <v>16.28019225408924</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.12285079438294</v>
+        <v>14.57895903569382</v>
       </c>
       <c r="M14">
-        <v>16.94046927181568</v>
+        <v>20.13193033697686</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.62952481793388</v>
+        <v>25.66108171654562</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.328892162646301</v>
+        <v>2.097482892336996</v>
       </c>
       <c r="E15">
-        <v>29.3458601097958</v>
+        <v>43.36916030746665</v>
       </c>
       <c r="F15">
-        <v>26.29785963780665</v>
+        <v>38.60625322741346</v>
       </c>
       <c r="G15">
-        <v>34.99579149972707</v>
+        <v>58.89050303887946</v>
       </c>
       <c r="H15">
-        <v>13.68878138469048</v>
+        <v>14.61051691687384</v>
       </c>
       <c r="I15">
-        <v>24.06746251474727</v>
+        <v>16.27539093439302</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.09884520451052</v>
+        <v>14.49741466480107</v>
       </c>
       <c r="M15">
-        <v>16.90921524103866</v>
+        <v>20.0210646997893</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.30150069155097</v>
+        <v>24.81559543764141</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.353808285913098</v>
+        <v>2.00168833172798</v>
       </c>
       <c r="E16">
-        <v>28.79331151276849</v>
+        <v>42.12060822803519</v>
       </c>
       <c r="F16">
-        <v>25.97165923678852</v>
+        <v>37.10673111688294</v>
       </c>
       <c r="G16">
-        <v>34.32826391917121</v>
+        <v>56.56711751768383</v>
       </c>
       <c r="H16">
-        <v>13.64617491282121</v>
+        <v>14.03884455811236</v>
       </c>
       <c r="I16">
-        <v>24.14853665369326</v>
+        <v>16.26100101483944</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.96055532594449</v>
+        <v>14.02355924685648</v>
       </c>
       <c r="M16">
-        <v>16.72927187629846</v>
+        <v>19.37622350285979</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.09736839567796</v>
+        <v>24.28502444692204</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.369356625128556</v>
+        <v>1.943413911345733</v>
       </c>
       <c r="E17">
-        <v>28.44859591254543</v>
+        <v>41.34012172536386</v>
       </c>
       <c r="F17">
-        <v>25.7730008356388</v>
+        <v>36.17913387822886</v>
       </c>
       <c r="G17">
-        <v>33.91740156507191</v>
+        <v>55.13122350149962</v>
       </c>
       <c r="H17">
-        <v>13.62148294900381</v>
+        <v>13.68587052244091</v>
       </c>
       <c r="I17">
-        <v>24.20060812067803</v>
+        <v>16.2634161299867</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.87511120191157</v>
+        <v>13.72692183896053</v>
       </c>
       <c r="M17">
-        <v>16.61817871488985</v>
+        <v>18.97204541801614</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.97892444648144</v>
+        <v>23.97543577247635</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.378396641686686</v>
+        <v>1.910047336776364</v>
       </c>
       <c r="E18">
-        <v>28.24826226349725</v>
+        <v>40.88582278951268</v>
       </c>
       <c r="F18">
-        <v>25.65932209237955</v>
+        <v>35.64257852840067</v>
       </c>
       <c r="G18">
-        <v>33.68069657593067</v>
+        <v>54.30112544233806</v>
       </c>
       <c r="H18">
-        <v>13.60781407578529</v>
+        <v>13.48193871049024</v>
       </c>
       <c r="I18">
-        <v>24.23141365696677</v>
+        <v>16.26875307770822</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.82575798115555</v>
+        <v>13.55408574868615</v>
       </c>
       <c r="M18">
-        <v>16.55404040317215</v>
+        <v>18.73637931140131</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.93864731925655</v>
+        <v>23.86985112271212</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.381474131374723</v>
+        <v>1.898773321168619</v>
       </c>
       <c r="E19">
-        <v>28.18008336524239</v>
+        <v>40.73107723512967</v>
       </c>
       <c r="F19">
-        <v>25.62093750452975</v>
+        <v>35.46037286211569</v>
       </c>
       <c r="G19">
-        <v>33.60049649813121</v>
+        <v>54.0193170565635</v>
       </c>
       <c r="H19">
-        <v>13.60327779173991</v>
+        <v>13.41272797021092</v>
       </c>
       <c r="I19">
-        <v>24.24199054014851</v>
+        <v>16.27122086524065</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.8090135839741</v>
+        <v>13.49518236772646</v>
       </c>
       <c r="M19">
-        <v>16.53228472208465</v>
+        <v>18.65603495989791</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.11920625462853</v>
+        <v>24.34196085472953</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.367691443876268</v>
+        <v>1.949601019694137</v>
       </c>
       <c r="E20">
-        <v>28.48550606061758</v>
+        <v>41.42376226495072</v>
       </c>
       <c r="F20">
-        <v>25.79408900952085</v>
+        <v>36.27818710436439</v>
       </c>
       <c r="G20">
-        <v>33.96118124555768</v>
+        <v>55.28450566988534</v>
       </c>
       <c r="H20">
-        <v>13.62405629842692</v>
+        <v>13.7235378455867</v>
       </c>
       <c r="I20">
-        <v>24.19497643132788</v>
+        <v>16.26274633622151</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.8842287548692</v>
+        <v>13.75872821789807</v>
       </c>
       <c r="M20">
-        <v>16.63003007276858</v>
+        <v>19.01540057775416</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.71329150389308</v>
+        <v>25.8757332096295</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.322540379929638</v>
+        <v>2.122393075853297</v>
       </c>
       <c r="E21">
-        <v>29.48670315238403</v>
+        <v>43.6870563012501</v>
       </c>
       <c r="F21">
-        <v>26.38248776877538</v>
+        <v>38.99120035340916</v>
       </c>
       <c r="G21">
-        <v>35.16762756572219</v>
+        <v>59.48737405876638</v>
       </c>
       <c r="H21">
-        <v>13.70022669302587</v>
+        <v>14.75747678982519</v>
       </c>
       <c r="I21">
-        <v>24.04725493143858</v>
+        <v>16.28273341970963</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.13434880502971</v>
+        <v>14.61794711732769</v>
       </c>
       <c r="M21">
-        <v>16.9554409603718</v>
+        <v>20.18492655323159</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.09168370331417</v>
+        <v>26.83984470656035</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.293888466833524</v>
+        <v>2.237336699318543</v>
       </c>
       <c r="E22">
-        <v>30.12168182363142</v>
+        <v>45.11932596704179</v>
       </c>
       <c r="F22">
-        <v>26.7711955933218</v>
+        <v>40.74195344449309</v>
       </c>
       <c r="G22">
-        <v>35.95037538914686</v>
+        <v>62.20413942221899</v>
       </c>
       <c r="H22">
-        <v>13.75471078235804</v>
+        <v>15.42685698250485</v>
       </c>
       <c r="I22">
-        <v>23.95838608354059</v>
+        <v>16.33489162868304</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.29564494633693</v>
+        <v>15.16050949377571</v>
       </c>
       <c r="M22">
-        <v>17.16559469258155</v>
+        <v>20.92166865429172</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.89066342383715</v>
+        <v>26.32873109457595</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.309102464895794</v>
+        <v>2.175769379542336</v>
       </c>
       <c r="E23">
-        <v>29.7845981757896</v>
+        <v>44.35912731422733</v>
       </c>
       <c r="F23">
-        <v>26.56340487941651</v>
+        <v>39.80933883928351</v>
       </c>
       <c r="G23">
-        <v>35.53323792664368</v>
+        <v>60.75649430451748</v>
       </c>
       <c r="H23">
-        <v>13.72520393435462</v>
+        <v>15.07008134142319</v>
       </c>
       <c r="I23">
-        <v>24.00511188963019</v>
+        <v>16.30328319897875</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.20977181454692</v>
+        <v>14.87263081861776</v>
       </c>
       <c r="M23">
-        <v>17.05368026076258</v>
+        <v>20.53093861938816</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.10933673206002</v>
+        <v>24.31623410800556</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.36844395743353</v>
+        <v>1.946803410828399</v>
       </c>
       <c r="E24">
-        <v>28.46882567433809</v>
+        <v>41.38596578818742</v>
       </c>
       <c r="F24">
-        <v>25.78455337541636</v>
+        <v>36.23341536493619</v>
       </c>
       <c r="G24">
-        <v>33.94138996700541</v>
+        <v>55.21522115427427</v>
       </c>
       <c r="H24">
-        <v>13.62289124561298</v>
+        <v>13.70651158864401</v>
       </c>
       <c r="I24">
-        <v>24.19751981212374</v>
+        <v>16.26303689478276</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.88010742275716</v>
+        <v>13.74435571136001</v>
       </c>
       <c r="M24">
-        <v>16.62467290862767</v>
+        <v>18.9958099936223</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.22758512756725</v>
+        <v>22.00274164158565</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.436167158013383</v>
+        <v>1.705343640209026</v>
       </c>
       <c r="E25">
-        <v>26.97147146860318</v>
+        <v>37.97312026563149</v>
       </c>
       <c r="F25">
-        <v>24.96740797781834</v>
+        <v>32.25901847850738</v>
       </c>
       <c r="G25">
-        <v>32.21110098141605</v>
+        <v>49.07468997609552</v>
       </c>
       <c r="H25">
-        <v>13.53292841217218</v>
+        <v>12.233036036777</v>
       </c>
       <c r="I25">
-        <v>24.43773319940622</v>
+        <v>16.36837953833904</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.51677111453676</v>
+        <v>12.44220376559142</v>
       </c>
       <c r="M25">
-        <v>16.15297237447164</v>
+        <v>17.2174740232337</v>
       </c>
       <c r="N25">
         <v>0</v>
